--- a/Translator/excel/Translated/Translated_Italian.xlsx
+++ b/Translator/excel/Translated/Translated_Italian.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VirtualDJ-Translations\Translator\excel\Translated\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBDCCAF-0A90-47AF-A7B3-F5F788F581D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -75,8 +81,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,10 +134,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -139,13 +154,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -183,7 +206,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -217,6 +240,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -251,9 +275,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -426,54 +451,60 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="61" style="3" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="390" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Translator/excel/Translated/Translated_Italian.xlsx
+++ b/Translator/excel/Translated/Translated_Italian.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\VirtualDJ-Translations\Translator\excel\Translated\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EBDCCAF-0A90-47AF-A7B3-F5F788F581D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -59,20 +53,20 @@
     <t>Load tags</t>
   </si>
   <si>
-    <t>Ottieni informazioni su un loop salvato: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
+    <t>ottenere informazioni su un loop salvato: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
 "get_saved_loop 'next' 'name'" può essere usato per ottenere informazioni sul prossimo loop salvato
 "get_saved_loop 1 'name'" può essere usato per ottenere informazioni sul primo loop salvato</t>
   </si>
   <si>
-    <t>Attiva/disattiva un effetto nominato con un singolo tasto. È possibile specificare anche i parametri dell’effetto.
-'padfx "echo" 40% 90%' per avviare/fermare l’effetto echo con il primo parametro al 40% e il secondo al 90%. Quando l’effetto viene fermato, i parametri tornano ai valori originali.
-'padfx "echo" 40% 1bt' per avviare/fermare l’effetto echo con il primo parametro al 40% e una lunghezza di 1 beat
-'padfx "echo" 40% 90% smart_pressed' smart_pressed funziona come toggle con una breve pressione, oppure come temporaneo tenendo premuto il pulsante
-'padfx "echo" 40% 90% "TRAIL:on"' dopo gli slider, è possibile aggiungere stringhe per disabilitare o abilitare parametri switch definendone il nome, due punti e "on" per abilitare o "off" per disabilitare
-'padfx "echo out" 80% "solostem:vocal"' come ultimo parametro, puoi aggiungere solostem:stemname per rendere udibile solo quello stem durante l’applicazione dell’effetto
-'padfx "echo out" "mutestem:rhythm"' come ultimo parametro, puoi aggiungere mutestem:stemname per silenziare quello stem durante l’applicazione dell’effetto
-'padfx "reverb" "stemfx:vocal"' come ultimo parametro, puoi aggiungere stemfx:stemname per applicare l’effetto solo a quello stem (gli altri stem continueranno a suonare normalmente)
- i nomi degli stem possono essere Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
+    <t>Attiva/disattiva un effetto indicato per nome con un singolo tasto. È anche possibile specificare i parametri dell’effetto.
+'padfx "echo" 40% 90%' per avviare/arrestare l’effetto echo con il primo parametro al 40% e il secondo al 90%. Quando l’effetto viene arrestato, i parametri tornano ai valori originali.
+'padfx "echo" 40% 1bt' per avviare/arrestare l’effetto echo con il primo parametro al 40% e una lunghezza di 1 beat
+'padfx "echo" 40% 90% smart_pressed' smart_pressed funziona come toggle se si preme brevemente il pulsante, oppure in modo temporaneo mentre si tiene premuto
+'padfx "echo" 40% 90% "TRAIL:on"' dopo gli slider, è possibile aggiungere stringhe per disabilitare o abilitare parametri a interruttore definendone il nome, due punti e "on" per abilitare o "off" per disabilitare
+'padfx "echo out" 80% "solostem:vocal"' come ultimo parametro, è possibile aggiungere solostem:stemname per rendere udibile solo quello stem mentre si applica l’effetto
+'padfx "echo out" "mutestem:rhythm"' come ultimo parametro, è possibile aggiungere mutestem:stemname per silenziare quello stem mentre si applica l’effetto
+'padfx "reverb" "stemfx:vocal"' come ultimo parametro, è possibile aggiungere stemfx:stemname per applicare l’effetto solo a quello stem (gli altri stem continueranno a suonare normalmente)
+i nomi degli stem possono essere Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
   </si>
   <si>
     <t>Carica tag</t>
@@ -81,8 +75,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,19 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -154,21 +139,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +183,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -240,7 +217,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -275,10 +251,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,60 +426,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="25.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="61" style="3" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="390" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" t="s">
         <v>11</v>
       </c>
     </row>

--- a/Translator/excel/Translated/Translated_Italian.xlsx
+++ b/Translator/excel/Translated/Translated_Italian.xlsx
@@ -53,23 +53,23 @@
     <t>Load tags</t>
   </si>
   <si>
-    <t>ottenere informazioni su un loop salvato: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
+    <t>Ottieni informazioni su un loop salvato: get_saved_loop 'pos', get_saved_loop 'length', get_saved_loop 'name'
 "get_saved_loop 'next' 'name'" può essere usato per ottenere informazioni sul prossimo loop salvato
 "get_saved_loop 1 'name'" può essere usato per ottenere informazioni sul primo loop salvato</t>
   </si>
   <si>
-    <t>Attiva/disattiva un effetto indicato per nome con un singolo tasto. È anche possibile specificare i parametri dell’effetto.
-'padfx "echo" 40% 90%' per avviare/arrestare l’effetto echo con il primo parametro al 40% e il secondo al 90%. Quando l’effetto viene arrestato, i parametri tornano ai valori originali.
-'padfx "echo" 40% 1bt' per avviare/arrestare l’effetto echo con il primo parametro al 40% e una lunghezza di 1 beat
-'padfx "echo" 40% 90% smart_pressed' smart_pressed funziona come toggle se si preme brevemente il pulsante, oppure in modo temporaneo mentre si tiene premuto
-'padfx "echo" 40% 90% "TRAIL:on"' dopo gli slider, è possibile aggiungere stringhe per disabilitare o abilitare parametri a interruttore definendone il nome, due punti e "on" per abilitare o "off" per disabilitare
-'padfx "echo out" 80% "solostem:vocal"' come ultimo parametro, è possibile aggiungere solostem:stemname per rendere udibile solo quello stem mentre si applica l’effetto
-'padfx "echo out" "mutestem:rhythm"' come ultimo parametro, è possibile aggiungere mutestem:stemname per silenziare quello stem mentre si applica l’effetto
-'padfx "reverb" "stemfx:vocal"' come ultimo parametro, è possibile aggiungere stemfx:stemname per applicare l’effetto solo a quello stem (gli altri stem continueranno a suonare normalmente)
-i nomi degli stem possono essere Vocal,HiHat,Bass,Instru,Kick,Melody,Rhythm,MeloVocal,MeloRhythm</t>
-  </si>
-  <si>
-    <t>Carica tag</t>
+    <t>Attiva/disattiva l’effetto indicato con un singolo tasto. È possibile specificare anche i parametri dell’effetto.
+'padfx "echo" 40% 90%' per avviare/arrestare l’effetto echo con il primo parametro al 40% e il secondo al 90%. Quando l’effetto viene fermato, i parametri tornano ai valori originali.
+'padfx "echo" 40% 1bt' per avviare/arrestare l’effetto echo con il primo parametro al 40% e lunghezza di 1 beat
+'padfx "echo" 40% 90% smart_pressed' smart_pressed funziona come toggle con una breve pressione del pulsante, oppure come temporaneo mentre si tiene premuto il pulsante
+'padfx "echo" 40% 90% "TRAIL:on"' dopo gli slider, è possibile aggiungere stringhe per disabilitare o abilitare parametri di tipo switch definendone il nome, due punti e "on" per abilitare o "off" per disabilitare
+'padfx "echo out" 80% "solostem:vocal"' come ultimo parametro, è possibile aggiungere solostem:nome_stem per rendere udibile solo quello stem durante l’applicazione dell’effetto
+'padfx "echo out" "mutestem:rhythm"' come ultimo parametro, è possibile aggiungere mutestem:nome_stem per silenziare quello stem durante l’applicazione dell’effetto
+'padfx "reverb" "stemfx:vocal"' come ultimo parametro, è possibile aggiungere stemfx:nome_stem per applicare l’effetto solo a quello stem (gli altri stem continueranno a suonare normalmente)
+I nomi degli stem possono essere Vocal, HiHat, Bass, Instru, Kick, Melody, Rhythm, MeloVocal, MeloRhythm.</t>
+  </si>
+  <si>
+    <t>Carica i tag</t>
   </si>
 </sst>
 </file>
